--- a/workers.xlsx
+++ b/workers.xlsx
@@ -12,48 +12,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>2016-06-15</t>
-  </si>
-  <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>Прочее</t>
-  </si>
-  <si>
-    <t>Инвалиды</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+  <si>
+    <t>dfgbw4tbwfg</t>
+  </si>
+  <si>
+    <t>wrtwrtbwrtb</t>
+  </si>
+  <si>
+    <t>wrtbrtbsfdgbsrtb</t>
+  </si>
+  <si>
+    <t>2016-06-14</t>
+  </si>
+  <si>
+    <t>муж</t>
+  </si>
+  <si>
+    <t>Ректор</t>
+  </si>
+  <si>
+    <t>Сироты</t>
+  </si>
+  <si>
+    <t>Факультет Дороги</t>
+  </si>
+  <si>
+    <t>Учебный</t>
+  </si>
+  <si>
+    <t>Кристина</t>
+  </si>
+  <si>
+    <t>Бузова</t>
+  </si>
+  <si>
+    <t>Валериевна</t>
+  </si>
+  <si>
+    <t>2016-06-10</t>
+  </si>
+  <si>
+    <t>жен</t>
+  </si>
+  <si>
+    <t>Учитель</t>
+  </si>
+  <si>
+    <t>yryrt</t>
+  </si>
+  <si>
+    <t>rtyrtyr</t>
+  </si>
+  <si>
+    <t>yrtyrtyryr</t>
+  </si>
+  <si>
+    <t>2016-06-08</t>
+  </si>
+  <si>
+    <t>Инвалидность</t>
   </si>
   <si>
     <t>Факультет Транспорт</t>
   </si>
   <si>
-    <t>fffff</t>
-  </si>
-  <si>
-    <t>ggggg</t>
-  </si>
-  <si>
-    <t>куенуентуен</t>
-  </si>
-  <si>
-    <t>zzzzz</t>
-  </si>
-  <si>
-    <t>2016-06-18</t>
-  </si>
-  <si>
-    <t>ж</t>
-  </si>
-  <si>
-    <t>Сотрудник</t>
-  </si>
-  <si>
-    <t>Сироты</t>
+    <t>tyutyu</t>
+  </si>
+  <si>
+    <t>ryrtutyuty</t>
+  </si>
+  <si>
+    <t>tututut</t>
+  </si>
+  <si>
+    <t>2016-06-01</t>
+  </si>
+  <si>
+    <t>hkhjkhjk</t>
+  </si>
+  <si>
+    <t>hjkjhkhjkhjk</t>
+  </si>
+  <si>
+    <t>hkhjkjhkh</t>
+  </si>
+  <si>
+    <t>2016-06-29</t>
+  </si>
+  <si>
+    <t>gjghjghjghjgh</t>
+  </si>
+  <si>
+    <t>htjghjghj</t>
+  </si>
+  <si>
+    <t>jghjghjgjghj</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>bmbnmbnm</t>
+  </si>
+  <si>
+    <t>nmbnmb</t>
+  </si>
+  <si>
+    <t>bmbmb</t>
+  </si>
+  <si>
+    <t>2016-06-02</t>
   </si>
 </sst>
 </file>
@@ -123,54 +192,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
@@ -181,27 +250,172 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
